--- a/DataSource/DataSource - Endoso - Cambio Plan de Pagos.xlsx
+++ b/DataSource/DataSource - Endoso - Cambio Plan de Pagos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B620AEB7-A20B-45E9-8471-E6785C672E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AF9BFD-3243-450F-A8EE-882532AA8E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,25 +57,25 @@
     <t>URL</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
     <t>su</t>
   </si>
   <si>
-    <t>12001315618</t>
-  </si>
-  <si>
     <t>10 Cuotas - ARS</t>
   </si>
   <si>
     <t>6 Cuotas - ARS</t>
+  </si>
+  <si>
+    <t>04104013002</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -120,12 +120,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -410,7 +411,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,54 +453,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="1">
+        <v>12112001742</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>11001399206</v>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
